--- a/test.xlsx
+++ b/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\newproj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Statistical-Performance-Measures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7BFA037-EC48-41C7-B1A4-EB7C7615787E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584C0108-D1D6-4143-AD43-713C39B972A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2925" yWindow="3300" windowWidth="21600" windowHeight="11385" xr2:uid="{BACC49F1-F6E1-4221-8E20-082645E6C794}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BACC49F1-F6E1-4221-8E20-082645E6C794}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Date Time</t>
   </si>
@@ -60,6 +60,21 @@
   </si>
   <si>
     <t>d</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>RMSE</t>
+  </si>
+  <si>
+    <t>re</t>
+  </si>
+  <si>
+    <t>MAE</t>
   </si>
 </sst>
 </file>
@@ -429,18 +444,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71A451B0-648D-4945-966C-477915E8CF14}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -461,19 +478,34 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
         <v>3</v>
-      </c>
-      <c r="J1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" t="s">
-        <v>6</v>
       </c>
       <c r="L1" t="s">
         <v>8</v>
       </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>40728.573611111111</v>
       </c>
@@ -494,24 +526,40 @@
         <f>SUM(E2:E4)/3</f>
         <v>0.76000000000000012</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2">
+        <f>((B2-G2)*(E2-H2)+(B3-G2)*(E3-H2)+(B4-G2)*(E4-H2))/(SQRT((B2-G2)^2+(B3-G2)^2+(B4-G2)^2)*SQRT((E2-H2)^2+(E3-H2)^2+(E4-H2)^2))</f>
+        <v>1.1949640252593674E-16</v>
+      </c>
+      <c r="J2">
+        <f>I2^2</f>
+        <v>1.42793902166407E-32</v>
+      </c>
+      <c r="K2" s="6">
         <f>1-(((B2-E2)^2+(B3-E3)^2+(B4-E4)^2)/((B2-G2)^2+(B3-G2)^2+(B4-G2)^2))</f>
         <v>-36547.744931168403</v>
       </c>
-      <c r="J2">
+      <c r="L2">
+        <f>1-(((B2-E2)^2+(B3-E3)^2+(B4-E4)^2)/((ABS(E2-G2)+ABS(B2-G2))^2+(ABS(E3-G2)+ABS(B3-G2))^2+(ABS(E4-G2)+ABS(B4-G2))^2))</f>
+        <v>9.065988499471378E-3</v>
+      </c>
+      <c r="M2">
+        <f>SQRT((1/3)*((B2-E2)^2+(B3-E3)^2+(B4-E4)^2))</f>
+        <v>0.78681665018466185</v>
+      </c>
+      <c r="N2">
+        <f>(1/3)*(ABS(B2-E2)+ABS(B3-E3)+ABS(B4-E4))</f>
+        <v>0.72983799744930322</v>
+      </c>
+      <c r="O2">
+        <f>(SQRT(((B2-E2)^2+(B3-E3)^2+(B4-E4)^2)))/SQRT((B2-H2)^2+(B3-H2)^2+(B4-H2)^2)</f>
+        <v>1.0780531337158692</v>
+      </c>
+      <c r="Q2">
         <f>(((B2-E2)+(B3-E3)+(B4-E4))/SUM(B2:B4))*100</f>
         <v>-2419.7265954824425</v>
       </c>
-      <c r="K2">
-        <f>(SQRT(((B2-E2)^2+(B3-E3)^2+(B4-E4)^2)))/SQRT((B2-H2)^2+(B3-H2)^2+(B4-H2)^2)</f>
-        <v>1.0780531337158692</v>
-      </c>
-      <c r="L2">
-        <f>1-(((B2-E2)^2+(B3-E3)^2+(B4-E4)^2)/((ABS(E2-G2)+ABS(B2-G2))+(ABS(E3-G2)+ABS(B3-G2))+(ABS(E4-G2)+ABS(B4-G2))))</f>
-        <v>0.1562422863719819</v>
-      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>40728.574999999997</v>
       </c>
@@ -525,7 +573,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>40728.576388888891</v>
       </c>
@@ -539,7 +587,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="D5" s="4"/>
